--- a/TSP docs/Planes/TSP-FormatoPlaneacionIndividual-LiderGeneral.xlsx
+++ b/TSP docs/Planes/TSP-FormatoPlaneacionIndividual-LiderGeneral.xlsx
@@ -380,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -478,40 +478,29 @@
     <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="10" fillId="4" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="7" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="9" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="9" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="9" fontId="7" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="11" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -577,13 +566,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.88"/>
-    <col customWidth="1" min="2" max="2" width="28.5"/>
-    <col customWidth="1" min="3" max="3" width="9.38"/>
-    <col customWidth="1" min="4" max="5" width="10.63"/>
-    <col customWidth="1" min="6" max="26" width="9.38"/>
+    <col customWidth="1" min="1" max="1" width="26.14"/>
+    <col customWidth="1" min="2" max="2" width="32.57"/>
+    <col customWidth="1" min="3" max="3" width="10.71"/>
+    <col customWidth="1" min="4" max="5" width="12.14"/>
+    <col customWidth="1" min="6" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -714,7 +703,7 @@
       </c>
       <c r="H10" s="21">
         <f t="shared" ref="H10:H11" si="2">F10/$F$36</f>
-        <v>0.1280409731</v>
+        <v>0.1051524711</v>
       </c>
     </row>
     <row r="11">
@@ -740,7 +729,7 @@
       </c>
       <c r="H11" s="21">
         <f t="shared" si="2"/>
-        <v>0.1152368758</v>
+        <v>0.09463722397</v>
       </c>
     </row>
     <row r="12">
@@ -778,7 +767,7 @@
       </c>
       <c r="H13" s="21">
         <f t="shared" ref="H13:H15" si="4">F13/$F$36</f>
-        <v>0.07682458387</v>
+        <v>0.06309148265</v>
       </c>
     </row>
     <row r="14">
@@ -806,7 +795,7 @@
       </c>
       <c r="H14" s="21">
         <f t="shared" si="4"/>
-        <v>0.08578745198</v>
+        <v>0.07045215563</v>
       </c>
     </row>
     <row r="15" ht="27.75" customHeight="1">
@@ -834,7 +823,7 @@
       </c>
       <c r="H15" s="21">
         <f t="shared" si="4"/>
-        <v>0.1843790013</v>
+        <v>0.1514195584</v>
       </c>
     </row>
     <row r="16">
@@ -872,7 +861,7 @@
       </c>
       <c r="H17" s="21">
         <f t="shared" ref="H17:H22" si="6">F17/$F$36</f>
-        <v>0.1536491677</v>
+        <v>0.1261829653</v>
       </c>
     </row>
     <row r="18">
@@ -900,7 +889,7 @@
       </c>
       <c r="H18" s="21">
         <f t="shared" si="6"/>
-        <v>0.1536491677</v>
+        <v>0.1261829653</v>
       </c>
     </row>
     <row r="19">
@@ -928,7 +917,7 @@
       </c>
       <c r="H19" s="21">
         <f t="shared" si="6"/>
-        <v>0.07682458387</v>
+        <v>0.06309148265</v>
       </c>
     </row>
     <row r="20">
@@ -956,60 +945,64 @@
       </c>
       <c r="H20" s="21">
         <f t="shared" si="6"/>
-        <v>0.02560819462</v>
+        <v>0.02103049422</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="31">
         <v>120.0</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="32">
         <v>2.0</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="35">
         <f t="shared" si="5"/>
         <v>0.06030150754</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42">
+      <c r="F21" s="34">
+        <v>170.0</v>
+      </c>
+      <c r="G21" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="H21" s="37">
+        <f t="shared" si="6"/>
+        <v>0.1787592008</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="40">
+        <v>60.0</v>
+      </c>
+      <c r="D22" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="41">
+        <f t="shared" si="5"/>
+        <v>0.03015075377</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="45">
-        <v>60.0</v>
-      </c>
-      <c r="D22" s="45">
-        <v>2.0</v>
-      </c>
-      <c r="E22" s="39">
-        <f t="shared" si="5"/>
-        <v>0.03015075377</v>
-      </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="23">
       <c r="A23" s="22"/>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="44" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="22"/>
@@ -1020,252 +1013,252 @@
       <c r="H23" s="26"/>
     </row>
     <row r="24">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="45">
         <v>180.0</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="47">
         <v>3.0</v>
       </c>
       <c r="E24" s="27">
         <f t="shared" ref="E24:E28" si="7">C24/$C$36</f>
         <v>0.09045226131</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="21">
         <f t="shared" ref="H24:H28" si="8">F24/$F$36</f>
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="45">
         <v>60.0</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="47">
         <v>3.0</v>
       </c>
       <c r="E25" s="27">
         <f t="shared" si="7"/>
         <v>0.03015075377</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="45">
         <v>180.0</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="47">
         <v>3.0</v>
       </c>
       <c r="E26" s="27">
         <f t="shared" si="7"/>
         <v>0.09045226131</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="45">
         <v>20.0</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="47">
         <v>3.0</v>
       </c>
       <c r="E27" s="27">
         <f t="shared" si="7"/>
         <v>0.01005025126</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="49">
         <v>60.0</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="47">
         <v>3.0</v>
       </c>
       <c r="E28" s="27">
         <f t="shared" si="7"/>
         <v>0.03015075377</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53" t="s">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="26"/>
     </row>
     <row r="30">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="45">
         <v>120.0</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="47">
         <v>4.0</v>
       </c>
       <c r="E30" s="27">
         <f t="shared" ref="E30:E34" si="9">C30/$C$36</f>
         <v>0.06030150754</v>
       </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="21">
         <f t="shared" ref="H30:H34" si="10">F30/$F$36</f>
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="54">
         <v>110.0</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="55">
         <v>4.0</v>
       </c>
       <c r="E31" s="27">
         <f t="shared" si="9"/>
         <v>0.05527638191</v>
       </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="49">
         <v>90.0</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="47">
         <v>4.0</v>
       </c>
       <c r="E32" s="27">
         <f t="shared" si="9"/>
         <v>0.04522613065</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="49">
         <v>120.0</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="47">
         <v>4.0</v>
       </c>
       <c r="E33" s="27">
         <f t="shared" si="9"/>
         <v>0.06030150754</v>
       </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="45"/>
       <c r="H33" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="45">
         <v>60.0</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="47">
         <v>4.0</v>
       </c>
       <c r="E34" s="27">
         <f t="shared" si="9"/>
         <v>0.03015075377</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="45"/>
       <c r="H34" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -1273,10 +1266,10 @@
     </row>
     <row r="35">
       <c r="A35" s="22"/>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="53"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="22"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
@@ -1284,20 +1277,20 @@
       <c r="H35" s="26"/>
     </row>
     <row r="36">
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="58">
         <f>SUM(C10:C34)</f>
         <v>1990</v>
       </c>
-      <c r="E36" s="62">
+      <c r="E36" s="59">
         <f t="shared" ref="E36:F36" si="11">SUM(E10:E34)</f>
         <v>1</v>
       </c>
-      <c r="F36" s="61">
+      <c r="F36" s="58">
         <f t="shared" si="11"/>
-        <v>781</v>
+        <v>951</v>
       </c>
       <c r="H36" s="21">
         <f>F36/$F$36</f>
